--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -441,6 +441,11 @@
           <t>company</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -450,7 +455,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -465,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +484,59 @@
           <t>location</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>BC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>test123</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mhfkymh</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>feqF</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NHS</t>
         </is>
       </c>
     </row>
@@ -498,7 +551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,14 +565,82 @@
           <t>asset_type</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>banana</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>cableway</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hiuewkcs</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pppoknl</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>okjhgnb</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>u54jktyu</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>VDS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>feqF</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -761,6 +761,7 @@
       <c r="F3" t="n">
         <v>2</v>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -789,6 +790,7 @@
       <c r="F4" t="n">
         <v>3</v>
       </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -817,6 +819,7 @@
       <c r="F5" t="n">
         <v>4</v>
       </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -845,6 +848,7 @@
       <c r="F6" t="n">
         <v>5</v>
       </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -906,6 +910,7 @@
       <c r="F8" t="n">
         <v>2</v>
       </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -934,6 +939,7 @@
       <c r="F9" t="n">
         <v>3</v>
       </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -962,6 +968,7 @@
       <c r="F10" t="n">
         <v>4</v>
       </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -990,6 +997,7 @@
       <c r="F11" t="n">
         <v>5</v>
       </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1051,6 +1059,7 @@
       <c r="F13" t="n">
         <v>7</v>
       </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1079,6 +1088,7 @@
       <c r="F14" t="n">
         <v>6</v>
       </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1107,6 +1117,7 @@
       <c r="F15" t="n">
         <v>5</v>
       </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1135,6 +1146,7 @@
       <c r="F16" t="n">
         <v>4</v>
       </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1163,6 +1175,7 @@
       <c r="F17" t="n">
         <v>3</v>
       </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1191,6 +1204,7 @@
       <c r="F18" t="n">
         <v>2</v>
       </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1219,6 +1233,7 @@
       <c r="F19" t="n">
         <v>1</v>
       </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1280,6 +1295,7 @@
       <c r="F21" t="n">
         <v>11</v>
       </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1308,6 +1324,7 @@
       <c r="F22" t="n">
         <v>10</v>
       </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1336,6 +1353,7 @@
       <c r="F23" t="n">
         <v>9</v>
       </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1364,6 +1382,7 @@
       <c r="F24" t="n">
         <v>8</v>
       </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1392,6 +1411,7 @@
       <c r="F25" t="n">
         <v>7</v>
       </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1420,6 +1440,7 @@
       <c r="F26" t="n">
         <v>6</v>
       </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1448,6 +1469,7 @@
       <c r="F27" t="n">
         <v>5</v>
       </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1476,6 +1498,7 @@
       <c r="F28" t="n">
         <v>4</v>
       </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1504,6 +1527,7 @@
       <c r="F29" t="n">
         <v>3</v>
       </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1532,6 +1556,7 @@
       <c r="F30" t="n">
         <v>2</v>
       </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1560,6 +1585,7 @@
       <c r="F31" t="n">
         <v>1</v>
       </c>
+      <c r="G31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
